--- a/REGULAR/CPDO/LUMENARIO, ZARAH ANGCAYA.xlsx
+++ b/REGULAR/CPDO/LUMENARIO, ZARAH ANGCAYA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,6 +223,27 @@
   </si>
   <si>
     <t>UT(0-0-51)</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-20)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>7/19,20/2022</t>
+  </si>
+  <si>
+    <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -607,15 +628,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -628,11 +640,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,7 +1350,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1393,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1457,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1517,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1583,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1646,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1744,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1803,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1868,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1911,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1986,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2172,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2238,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2296,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2362,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2418,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2493,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2536,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2602,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2658,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2756,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2819,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2885,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K129" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K130" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3272,12 +3293,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="4020" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="4020" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B76" sqref="B76"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,14 +3328,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3325,16 +3346,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>43344</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3347,16 +3368,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3382,18 +3403,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3440,7 +3461,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>52.864999999999995</v>
+        <v>51.927999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3450,7 +3471,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>66.75</v>
+        <v>68</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4511,11 +4532,15 @@
       <c r="A62" s="40">
         <v>44743</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C62" s="13">
         <v>1.25</v>
       </c>
-      <c r="D62" s="39"/>
+      <c r="D62" s="39">
+        <v>2</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
@@ -4525,22 +4550,24 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D63" s="39"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4549,13 +4576,17 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B64" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
-      <c r="D64" s="39"/>
+      <c r="D64" s="39">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
@@ -4569,13 +4600,17 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B65" s="20"/>
+        <v>44805</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -4589,16 +4624,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
       <c r="D66" s="39">
-        <v>0.10600000000000001</v>
+        <v>3.7000000000000019E-2</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
@@ -4613,16 +4648,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
       <c r="D67" s="39">
-        <v>5</v>
+        <v>0.10600000000000001</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
@@ -4636,19 +4671,23 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>44896</v>
+      </c>
       <c r="B68" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39">
-        <v>0.77900000000000003</v>
+        <v>5</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4656,12 +4695,14 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="20"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C69" s="13"/>
-      <c r="D69" s="39"/>
+      <c r="D69" s="39">
+        <v>0.77900000000000003</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13" t="str">
@@ -4674,43 +4715,39 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A70" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H70" s="39">
-        <v>2</v>
-      </c>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>44927</v>
+      </c>
       <c r="B71" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39">
         <v>2</v>
@@ -4718,40 +4755,38 @@
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C72" s="13"/>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H72" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="49">
-        <v>44960</v>
+      <c r="K72" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B73" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
@@ -4762,14 +4797,18 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="39">
+        <v>1</v>
+      </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="49">
+        <v>44960</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4789,7 +4828,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13">
@@ -4809,7 +4848,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4829,11 +4868,9 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
@@ -4844,41 +4881,51 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H77" s="39">
-        <v>1</v>
-      </c>
+      <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="49">
-        <v>45124</v>
-      </c>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="A78" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="39"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="39">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="49">
+        <v>45124</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45139</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4886,8 +4933,12 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
@@ -4899,7 +4950,9 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="49">
+        <v>45183</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
@@ -5670,34 +5723,50 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="43"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="43"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="15"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="41"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="43"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5766,14 +5835,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5787,17 +5856,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>43344</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5811,17 +5880,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CPDO</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5847,18 +5916,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7973,11 +8042,11 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.10600000000000001</v>
+        <v>6.0000000000000019E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
